--- a/public/salary_table_template/salary_table_retired.xlsx
+++ b/public/salary_table_template/salary_table_retired.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>序号</t>
   </si>
@@ -485,6 +485,10 @@
     <t>pay_item_15</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>org</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -702,38 +706,38 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
-      <selection activeCell="Y1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1160,9 +1164,10 @@
     <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="19.6640625" style="1" customWidth="1"/>
@@ -1180,13 +1185,16 @@
     <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1306,98 +1314,98 @@
       </c>
     </row>
     <row r="3" spans="1:44" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="21"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="14"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
       <c r="AP3" s="7"/>
-      <c r="AQ3" s="18" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1451,7 @@
       <c r="AA4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="18"/>
+      <c r="AB4" s="11"/>
       <c r="AC4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1486,8 +1494,8 @@
       <c r="AP4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="19"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="12"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -2156,16 +2164,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="M3:Z3"/>
-    <mergeCell ref="AC3:AO3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="F3:F4"/>
@@ -2173,6 +2171,16 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="M3:Z3"/>
+    <mergeCell ref="AC3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
